--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:02 AM</t>
+    <t>Saturday, 13 September, 2025 10:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ENEMAX ENEMA 120 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -116,7 +125,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:14 AM</t>
+    <t>Saturday, 13 September, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -829,15 +838,15 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -849,20 +858,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -889,7 +898,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -899,49 +908,82 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>180.90000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>220.90000000000001</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:15 AM</t>
+    <t>Saturday, 13 September, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -101,6 +101,21 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:23</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -122,10 +137,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>Saturday, 13 September, 2025 10:16 AM</t>
+    <t>Saturday, 13 September, 2025 10:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,24 +910,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,14 +936,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -941,49 +953,82 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>220.90000000000001</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>232.90000000000001</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -116,6 +116,12 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -128,16 +134,13 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:17 AM</t>
+    <t>Saturday, 13 September, 2025 10:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +946,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +956,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -969,14 +972,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -986,49 +989,82 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>36</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>232.90000000000001</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>42</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>250.90000000000001</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1108,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -119,6 +119,9 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:19 AM</t>
+    <t>Saturday, 13 September, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -946,7 +949,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -960,10 +963,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -972,7 +975,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -989,11 +992,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1005,14 +1008,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1022,11 +1025,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>34</v>
@@ -1034,13 +1037,13 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="P15" s="13">
-        <v>250.90000000000001</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="Q15" s="13"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c t="s" r="A16" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1048,13 +1051,13 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c t="s" r="G16" s="15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c t="s" r="K16" s="17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:22 AM</t>
+    <t>Saturday, 13 September, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -143,7 +143,25 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:23 AM</t>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 13 September, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1036,38 +1054,104 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>268.89999999999998</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>27</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>27</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>328.89999999999998</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1200,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -161,7 +161,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:00 AM</t>
+    <t>Saturday, 13 September, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8274:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -161,7 +173,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:07 AM</t>
+    <t>Saturday, 13 September, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1045,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1043,14 +1055,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1059,31 +1071,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1092,14 +1104,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1109,49 +1121,82 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>328.89999999999998</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>50</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>26</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>27</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>346.89999999999998</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1255,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:08 AM</t>
+    <t>Saturday, 13 September, 2025 11:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>-57.4200</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -155,6 +170,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -167,13 +194,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 13 September, 2025 11:12 AM</t>
+    <t>Saturday, 13 September, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -864,7 +885,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -873,14 +894,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -890,14 +911,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -906,20 +927,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -930,7 +951,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -952,18 +973,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -979,24 +1000,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1005,14 +1026,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1022,14 +1043,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,14 +1059,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1055,14 +1076,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1092,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,14 +1109,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,31 +1125,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1137,66 +1158,132 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>346.89999999999998</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>32</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>58</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>31</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>32</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>324.48000000000002</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1347,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -116,6 +116,21 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -194,7 +206,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:15 AM</t>
+    <t>Saturday, 13 September, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,7 +1018,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1033,24 +1045,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1059,14 +1071,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1076,14 +1088,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1092,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1113,10 +1125,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1132,7 +1144,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1154,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,20 +1170,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1182,7 +1194,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1198,7 +1210,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,11 +1220,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1224,14 +1236,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1241,49 +1253,82 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>324.48000000000002</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>61</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>63</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>31</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>32</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>59</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>377.92000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>67</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1402,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -206,7 +218,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:17 AM</t>
+    <t>Saturday, 13 September, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1111,7 +1123,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1121,14 +1133,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,14 +1149,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1158,10 +1170,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1177,7 +1189,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1187,14 +1199,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,20 +1215,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1227,7 +1239,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1243,7 +1255,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1253,11 +1265,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1286,49 +1298,82 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>377.92000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>65</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>66</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>67</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>31</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>32</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>384.97000000000003</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>69</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>70</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>71</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1407,10 +1452,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -218,7 +218,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:19 AM</t>
+    <t>Saturday, 13 September, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -185,6 +197,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -218,7 +239,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:22 AM</t>
+    <t>Saturday, 13 September, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1177,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,14 +1187,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1182,14 +1203,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1203,10 +1224,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1222,7 +1243,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1248,20 +1269,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1288,13 +1309,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1305,7 +1326,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1321,7 +1342,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1331,49 +1352,115 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>384.97000000000003</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>69</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>32</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>73</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>32</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>70</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>485.56999999999999</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>77</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>78</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1457,10 +1544,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:23 AM</t>
+    <t>Saturday, 13 September, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:40 AM</t>
+    <t>Saturday, 13 September, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -239,7 +251,7 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:44 AM</t>
+    <t>Saturday, 13 September, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,24 +1090,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1104,31 +1116,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1144,7 +1156,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1187,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>39</v>
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1227,7 +1239,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1243,7 +1255,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1290,10 +1302,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1309,7 +1321,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1326,7 +1338,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1342,24 +1354,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,14 +1380,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1408,7 +1420,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1418,49 +1430,115 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>485.56999999999999</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>76</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>32</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>77</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>31</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>32</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>73</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>537.57000000000005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1554,10 +1632,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -236,6 +236,27 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -248,10 +269,22 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ماء ورد ايفا</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:45 AM</t>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>Saturday, 13 September, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1420,7 +1453,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1430,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1446,14 +1479,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1463,11 +1496,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1479,14 +1512,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1496,49 +1529,181 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>537.57000000000005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>80</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>81</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>82</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>32</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>31</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>32</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>73</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>49</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>32</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>73</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>32</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>24</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>658.57000000000005</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>91</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>92</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1807,30 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -284,7 +293,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 11:53 AM</t>
+    <t>Saturday, 13 September, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1519,7 +1528,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,7 +1554,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1562,11 +1571,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1585,7 +1594,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1595,11 +1604,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1611,14 +1620,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1632,10 +1641,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1644,14 +1653,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1661,49 +1670,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>93</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>32</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>24</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c t="s" r="Q30" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>658.57000000000005</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>91</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>92</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>93</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>698.57000000000005</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>94</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>95</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>96</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1827,10 +1869,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -293,7 +302,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 12:25 PM</t>
+    <t>Saturday, 13 September, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,7 +1306,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1330,7 +1339,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1340,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1377,10 +1386,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1396,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1413,7 +1422,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1429,24 +1438,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1472,11 +1481,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1528,7 +1537,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1561,7 +1570,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,14 +1580,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,7 +1596,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1627,7 +1636,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1703,49 +1712,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
         <v>25</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>32</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>24</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>698.57000000000005</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>94</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>95</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>96</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>756.57000000000005</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>97</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1874,10 +1916,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -302,7 +314,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 12:38 PM</t>
+    <t>Saturday, 13 September, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1537,7 +1549,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1584,10 +1596,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1629,7 +1641,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1646,11 +1658,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1679,11 +1691,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1716,10 +1728,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1745,49 +1757,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>99</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>100</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>32</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>24</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>25</v>
       </c>
-      <c t="s" r="Q31" s="12">
+      <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>756.57000000000005</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>97</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>98</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>99</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>761.57000000000005</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +1966,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -128,9 +143,6 @@
     <t>53.4400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -203,6 +215,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -269,6 +293,12 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -314,7 +344,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 12:54 PM</t>
+    <t>Saturday, 13 September, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1038,7 +1068,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1047,14 +1077,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1064,11 +1094,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1080,20 +1110,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1126,18 +1156,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1153,7 +1183,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1179,20 +1209,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1203,7 +1233,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1219,24 +1249,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1245,14 +1275,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1262,14 +1292,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1302,7 +1332,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1318,7 +1348,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1358,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,11 +1391,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1377,14 +1407,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1398,10 +1428,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1417,7 +1447,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,28 +1506,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1509,20 +1539,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1533,7 +1563,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1555,7 +1585,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1566,7 +1596,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1582,21 +1612,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1608,31 +1638,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,28 +1671,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1674,28 +1704,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1707,31 +1737,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,31 +1770,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,66 +1803,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>761.57000000000005</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>101</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>102</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>103</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>37</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>84</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>37</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>84</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>109</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>110</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>37</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>29</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>839.39999999999998</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2100,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -44,30 +44,42 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>-57.4200</t>
-  </si>
-  <si>
-    <t>0:-2</t>
+    <t>-28.7100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
   </si>
   <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -215,12 +227,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -296,7 +314,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -305,9 +323,6 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -344,7 +359,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 1:00 PM</t>
+    <t>Saturday, 13 September, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1066,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1061,14 +1076,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1077,14 +1092,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,14 +1109,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,7 +1149,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1156,18 +1171,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1176,20 +1191,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1200,7 +1215,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1216,7 +1231,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,14 +1241,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1242,20 +1257,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1266,7 +1281,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1282,24 +1297,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1308,14 +1323,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1325,14 +1340,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,7 +1380,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1381,7 +1396,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,14 +1406,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,7 +1422,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1424,14 +1439,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1464,7 +1479,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1480,7 +1495,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,14 +1538,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1539,14 +1554,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1560,10 +1575,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1579,24 +1594,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,31 +1620,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1638,31 +1653,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,31 +1686,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1711,24 +1726,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1737,31 +1752,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1777,24 +1792,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,31 +1818,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,31 +1851,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,31 +1884,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,66 +1917,132 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
         <v>30</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>839.39999999999998</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>111</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>112</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>57</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>41</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>90</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>115</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>41</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>33</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>934.87</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>116</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>117</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>118</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2115,10 +2196,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -359,7 +359,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 1:02 PM</t>
+    <t>Saturday, 13 September, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:13</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -188,13 +200,16 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>37.6000</t>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -314,15 +329,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -359,7 +377,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 1:03 PM</t>
+    <t>Saturday, 13 September, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1066,7 +1084,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1076,14 +1094,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1099,7 +1117,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1109,14 +1127,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1125,14 +1143,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1142,14 +1160,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,7 +1200,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1204,18 +1222,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1224,20 +1242,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1248,7 +1266,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1264,7 +1282,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1274,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1290,20 +1308,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1314,7 +1332,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1330,24 +1348,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1356,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1373,14 +1391,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,7 +1431,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1422,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1439,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1455,7 +1473,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1472,14 +1490,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1488,14 +1506,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1505,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1521,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1538,14 +1556,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1604,14 +1622,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1653,31 +1671,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1686,31 +1704,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1719,31 +1737,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1752,31 +1770,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1785,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1818,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1884,7 +1902,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1897,18 +1915,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1917,31 +1935,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1950,31 +1968,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1983,66 +2001,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>934.87</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>116</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>117</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>118</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>120</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>121</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>45</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>37</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1042.6700000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>122</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>123</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>124</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2206,10 +2257,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -80,13 +80,16 @@
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
-    <t>3:13</t>
+    <t>3:14</t>
   </si>
   <si>
     <t>286.00</t>
   </si>
   <si>
-    <t>28.6000</t>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
@@ -113,9 +116,6 @@
     <t>59.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -200,16 +200,13 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>112.8000</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>75.2000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -329,7 +326,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -1101,7 +1098,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1110,7 +1107,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1127,14 +1124,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1143,14 +1140,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,14 +1157,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1200,7 +1197,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1233,7 +1230,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1266,7 +1263,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1299,7 +1296,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1332,7 +1329,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1365,7 +1362,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1381,7 +1378,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,7 +1388,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1431,7 +1428,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1440,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1454,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,7 +1470,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1490,14 +1487,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,7 +1503,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1523,14 +1520,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,7 +1536,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1556,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,7 +1569,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1589,14 +1586,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1605,14 +1602,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1619,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1652,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,7 +1668,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1688,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1734,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1784,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>61</v>
@@ -1803,7 +1800,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1820,14 +1817,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1850,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,7 +1883,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1902,7 +1899,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1926,7 +1923,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1935,7 +1932,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1952,14 +1949,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,7 +1965,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1985,14 +1982,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,7 +1998,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2018,11 +2015,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>61</v>
@@ -2034,14 +2031,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2058,18 +2055,18 @@
         <v>38</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="P39" s="13">
-        <v>1042.6700000000001</v>
+        <v>988.76999999999998</v>
       </c>
       <c r="Q39" s="13"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c t="s" r="A40" s="14">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2077,13 +2074,13 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c t="s" r="G40" s="15">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="16"/>
       <c t="s" r="K40" s="17">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 1:30 PM</t>
+    <t>Saturday, 13 September, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEDESAFOROL DROP</t>
   </si>
   <si>
@@ -200,13 +209,16 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>75.2000</t>
+    <t>112.8000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -374,7 +386,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 1:36 PM</t>
+    <t>Saturday, 13 September, 2025 2:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,24 +1258,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1272,31 +1284,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1329,7 +1341,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1345,24 +1357,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,31 +1383,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1411,7 +1423,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1433,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1449,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1466,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1477,7 +1489,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1487,14 +1499,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,11 +1532,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>30</v>
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1565,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>30</v>
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1623,10 +1635,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1642,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1697,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,20 +1713,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1725,7 +1737,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1747,7 +1759,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1780,7 +1792,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1791,7 +1803,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,24 +1819,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,31 +1845,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1866,20 +1878,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1887,10 +1899,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1899,31 +1911,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1932,7 +1944,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1945,15 +1957,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>30</v>
@@ -1965,28 +1977,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -1998,31 +2010,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,66 +2043,99 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>124</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>48</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>37</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q38" s="12">
+      <c t="s" r="Q39" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>988.76999999999998</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>121</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>122</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>123</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1030.21</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>125</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>126</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>127</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2304,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 2:38 PM</t>
+    <t>Saturday, 13 September, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -299,6 +299,18 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -365,10 +377,7 @@
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
+    <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>ماء ورد ايفا</t>
@@ -386,7 +395,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 2:45 PM</t>
+    <t>Saturday, 13 September, 2025 3:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1836,7 +1845,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1852,7 +1861,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1932,10 +1941,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,14 +1970,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,7 +1986,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>30</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2043,7 +2052,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2083,7 +2092,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,49 +2102,115 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1030.21</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>64</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>48</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>102</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c t="s" r="Q40" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>126</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>127</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>48</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>37</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1090.21</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>129</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>130</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2309,10 +2384,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -347,6 +347,18 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -395,7 +407,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 3:39 PM</t>
+    <t>Saturday, 13 September, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1894,7 +1906,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1949,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1974,10 +1986,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,7 +2031,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>30</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,11 +2081,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>30</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2139,10 +2151,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2168,49 +2180,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>130</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>131</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>48</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>37</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>38</v>
       </c>
-      <c t="s" r="Q41" s="12">
+      <c t="s" r="Q42" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1090.21</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>128</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>129</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>130</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1100.21</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>132</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>133</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>134</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2394,10 +2439,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AGGREX 75MG 60 TABS.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>4.3200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>14.3000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -206,12 +218,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>752.00</t>
   </si>
   <si>
@@ -407,7 +428,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:02 PM</t>
+    <t>Saturday, 13 September, 2025 4:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1168,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1157,14 +1178,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1180,7 +1201,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1190,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1230,7 +1251,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1263,7 +1284,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1279,7 +1300,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1305,31 +1326,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1338,20 +1359,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1362,7 +1383,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1378,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1388,14 +1409,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,20 +1425,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1428,7 +1449,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1444,24 +1465,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>69</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1541,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1536,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1576,7 +1597,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,14 +1640,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1635,14 +1656,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,14 +1673,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,14 +1689,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1689,10 +1710,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>89</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1708,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1725,7 +1746,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1762,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,20 +1788,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1791,7 +1812,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1807,24 +1828,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,31 +1854,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,31 +1887,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,31 +1920,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,31 +1986,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,31 +2019,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,31 +2052,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,31 +2085,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2163,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,66 +2217,132 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>68</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>52</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>109</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
         <v>38</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1100.21</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>132</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>133</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>134</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>137</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>138</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>52</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>41</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1119.8900000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2444,10 +2531,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:05 PM</t>
+    <t>Saturday, 13 September, 2025 4:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -383,9 +395,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -416,6 +425,12 @@
     <t>ماء ورد ايفا</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
@@ -428,7 +443,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:06 PM</t>
+    <t>Saturday, 13 September, 2025 4:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1216,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,14 +1226,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1234,7 +1249,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1259,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,7 +1299,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1317,7 +1332,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1333,7 +1348,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1343,14 +1358,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1359,31 +1374,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,20 +1407,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1416,7 +1431,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1432,7 +1447,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1457,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,20 +1473,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1482,7 +1497,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,24 +1513,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,7 +1579,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1589,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1597,7 +1612,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1622,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1630,7 +1645,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,7 +1671,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1673,14 +1688,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1721,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1722,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1739,14 +1754,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1776,10 +1791,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1795,7 +1810,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1820,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,20 +1869,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1878,7 +1893,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1900,7 +1915,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1911,7 +1926,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1933,7 +1948,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1944,7 +1959,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1966,7 +1981,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1977,7 +1992,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1999,7 +2014,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2010,7 +2025,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2026,24 +2041,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,31 +2067,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,24 +2107,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2125,24 +2140,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,7 +2166,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2164,18 +2179,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,20 +2199,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2208,7 +2223,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,31 +2232,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,31 +2265,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,66 +2298,132 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1119.8900000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>139</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>72</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>56</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>113</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>143</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>56</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>45</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1158.3699999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2622,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:07 PM</t>
+    <t>Saturday, 13 September, 2025 4:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -128,6 +140,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -143,9 +167,6 @@
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -209,6 +230,27 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -218,18 +260,12 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
     <t>36.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -338,9 +374,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -395,6 +428,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -443,7 +479,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:09 PM</t>
+    <t>Saturday, 13 September, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1249,7 +1285,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,14 +1295,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1282,7 +1318,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1292,14 +1328,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,7 +1368,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,7 +1401,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1381,7 +1417,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1398,7 +1434,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1420,18 +1456,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1493,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1473,20 +1509,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1497,7 +1533,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1519,7 +1555,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1546,7 +1582,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1579,7 +1615,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,11 +1625,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1605,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1629,7 +1665,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,28 +1674,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1671,14 +1707,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1704,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1757,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,14 +1773,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1810,7 +1846,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1886,14 +1922,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1902,31 +1938,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,31 +1971,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,31 +2004,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,31 +2037,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,31 +2070,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2103,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2133,31 +2169,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2173,24 +2209,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,31 +2235,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>38</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,31 +2268,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,31 +2301,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,20 +2334,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2319,10 +2355,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,66 +2400,198 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1158.3699999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>144</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>145</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>146</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>62</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>63</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>124</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>135</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>63</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>59</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>152</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>44</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>63</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>124</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>154</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>155</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>63</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>52</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1314.3699999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2632,10 +2800,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:28 PM</t>
+    <t>Saturday, 13 September, 2025 4:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -80,57 +80,57 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>-28.7100</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:14</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -260,6 +260,15 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>MEGAMOX 1GM 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>178.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -302,15 +311,21 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SERIOPRAZOLE 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
     <t>58.00</t>
   </si>
   <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -479,7 +494,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 4:35 PM</t>
+    <t>Saturday, 13 September, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,7 +1234,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1229,11 +1244,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1245,14 +1260,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1262,11 +1277,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1278,14 +1293,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,11 +1310,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1311,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1417,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1483,7 +1498,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1724,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1755,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1797,7 +1812,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1863,7 +1878,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1879,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1896,7 +1911,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1912,7 +1927,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1926,7 +1941,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>42</v>
@@ -1938,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,28 +2085,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>42</v>
@@ -2103,31 +2118,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,11 +2168,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>42</v>
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,11 +2234,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>42</v>
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>139</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2308,7 +2323,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>42</v>
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>42</v>
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>42</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>42</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2549,49 +2564,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1314.3699999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>156</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>157</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>44</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>63</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>129</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>159</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>160</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>63</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>52</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1490.0799999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2820,10 +2901,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ENEMAX ENEMA 120 ML</t>
   </si>
   <si>
@@ -353,6 +365,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -443,7 +467,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -494,7 +521,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 5:02 PM</t>
+    <t>Saturday, 13 September, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,7 +1459,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1482,7 +1509,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1498,7 +1525,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,31 +1551,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1557,20 +1584,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1581,7 +1608,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1597,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1634,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1650,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1667,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1683,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1702,7 +1729,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1710,7 +1737,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1722,28 +1749,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1755,7 +1782,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1772,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,14 +1832,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1828,7 +1855,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1861,7 +1888,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1894,7 +1921,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1931,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,11 +1997,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>42</v>
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2030,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>42</v>
@@ -2019,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,14 +2063,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2073,10 +2100,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2092,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,28 +2178,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>42</v>
@@ -2184,31 +2211,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,24 +2244,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2263,7 +2290,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2274,7 +2301,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2296,7 +2323,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2323,24 +2350,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,28 +2376,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>42</v>
@@ -2382,31 +2409,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,28 +2442,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>42</v>
@@ -2448,31 +2475,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,28 +2508,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>42</v>
@@ -2514,28 +2541,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>42</v>
@@ -2547,28 +2574,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>42</v>
@@ -2580,31 +2607,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,66 +2640,132 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1490.0799999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>161</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>162</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>163</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>166</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>44</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>67</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>137</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>168</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>169</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>67</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>52</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1524.24</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>170</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>171</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>172</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2911,10 +3004,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:26 PM</t>
+    <t>Saturday, 13 September, 2025 6:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ENEMAX ENEMA 120 ML</t>
   </si>
   <si>
@@ -521,7 +530,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:28 PM</t>
+    <t>Saturday, 13 September, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1534,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>42</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1575,7 +1584,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1591,24 +1600,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,31 +1626,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1674,7 +1683,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1699,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1707,7 +1716,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1723,7 +1732,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,11 +1742,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1749,28 +1758,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1789,21 +1798,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1832,14 +1841,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,14 +1890,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1987,7 +1996,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2001,10 +2010,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,11 +2039,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>42</v>
@@ -2053,7 +2062,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2086,7 +2095,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,11 +2138,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2199,10 +2208,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,7 +2227,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2251,24 +2260,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2290,15 +2299,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>42</v>
@@ -2310,28 +2319,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>42</v>
@@ -2343,31 +2352,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,31 +2385,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,31 +2418,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2449,24 +2458,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2482,24 +2491,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2515,24 +2524,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,7 +2550,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2554,15 +2563,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>42</v>
@@ -2574,28 +2583,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>42</v>
@@ -2607,28 +2616,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>42</v>
@@ -2640,28 +2649,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>42</v>
@@ -2673,31 +2682,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,66 +2715,99 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>171</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>172</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>70</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>52</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>53</v>
       </c>
-      <c t="s" r="Q54" s="12">
+      <c t="s" r="Q55" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1524.24</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>170</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>171</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>172</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>1558.24</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>173</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>174</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>175</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3014,10 +3056,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -530,7 +530,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:32 PM</t>
+    <t>Saturday, 13 September, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -221,9 +239,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>44.90</t>
   </si>
   <si>
@@ -260,6 +275,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -272,6 +296,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>KEVORK 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>46.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -296,6 +329,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -362,9 +404,6 @@
     <t>39.00</t>
   </si>
   <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -407,6 +446,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -440,72 +491,90 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>31:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>50:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -530,7 +599,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:33 PM</t>
+    <t>Saturday, 13 September, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1471,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1412,11 +1481,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1428,14 +1497,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1445,11 +1514,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1461,14 +1530,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1485,7 +1554,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1501,7 +1570,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1511,14 +1580,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1527,14 +1596,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1551,7 +1620,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1567,7 +1636,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1577,11 +1646,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>42</v>
@@ -1593,14 +1662,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1617,7 +1686,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1633,21 +1702,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>42</v>
@@ -1659,14 +1728,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,11 +1745,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1692,28 +1761,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>42</v>
@@ -1725,14 +1794,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1742,11 +1811,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1758,14 +1827,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,14 +1844,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1791,28 +1860,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1824,14 +1893,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1841,14 +1910,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1857,14 +1926,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1874,14 +1943,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1897,7 +1966,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1907,11 +1976,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1923,20 +1992,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1944,10 +2013,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1956,14 +2025,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,11 +2042,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1989,14 +2058,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2006,14 +2075,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2022,31 +2091,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2055,14 +2124,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,14 +2141,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2088,14 +2157,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2174,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,14 +2190,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2161,7 +2230,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2171,11 +2240,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2187,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2204,14 +2273,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>128</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2220,14 +2289,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,11 +2306,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>42</v>
@@ -2253,14 +2322,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2270,14 +2339,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2286,31 +2355,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,31 +2388,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2352,31 +2421,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,31 +2454,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,31 +2487,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,31 +2520,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,28 +2553,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>42</v>
@@ -2517,31 +2586,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,31 +2619,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,31 +2652,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2616,28 +2685,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>42</v>
@@ -2649,28 +2718,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>42</v>
@@ -2682,31 +2751,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,20 +2784,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2736,10 +2805,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,66 +2817,363 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>1558.24</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>173</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>174</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>175</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>182</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>183</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>69</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>168</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>184</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>39</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>69</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>55</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>185</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>39</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>69</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>28</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>186</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>26</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>69</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>161</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>188</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>47</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>69</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>157</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>189</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>75</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>69</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>157</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>190</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>171</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>69</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>72</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>192</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>47</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>69</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>157</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>195</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>69</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>55</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2054.3400000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>196</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>197</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>198</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3061,10 +3427,55 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>AZATHIOPRINE RPG 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -140,6 +149,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
   </si>
   <si>
@@ -152,9 +173,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -173,6 +191,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -275,6 +302,12 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -344,9 +377,6 @@
     <t>1:4</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>15.3600</t>
   </si>
   <si>
@@ -440,12 +470,6 @@
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -542,10 +566,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t xml:space="preserve">شاش 7 سم </t>
@@ -590,16 +620,13 @@
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:40 PM</t>
+    <t>Saturday, 13 September, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1438,7 +1465,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1448,14 +1475,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1481,14 +1508,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1521,7 +1548,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1537,7 +1564,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1547,11 +1574,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1563,7 +1590,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1580,14 +1607,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1596,14 +1623,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1613,11 +1640,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1629,14 +1656,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1646,14 +1673,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1662,14 +1689,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1679,14 +1706,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1695,31 +1722,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1728,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1745,14 +1772,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1761,31 +1788,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1794,31 +1821,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1827,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1844,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1860,31 +1887,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1893,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1917,7 +1944,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1933,7 +1960,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1959,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1976,11 +2003,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1992,28 +2019,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2025,7 +2052,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2098,17 +2125,17 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2137,7 +2164,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2145,7 +2172,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2174,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,28 +2250,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2395,7 +2422,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2438,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2454,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2471,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2553,31 +2580,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,31 +2613,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2619,31 +2646,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,31 +2679,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2685,31 +2712,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,31 +2745,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,31 +2778,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2784,31 +2811,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,31 +2844,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2850,31 +2877,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,31 +2910,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2916,31 +2943,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2949,7 +2976,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2962,18 +2989,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3015,31 +3042,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,31 +3075,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,31 +3108,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3114,66 +3141,231 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2054.3400000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>196</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>197</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>198</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>47</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>78</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>165</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>84</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>78</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>165</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>179</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>78</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>81</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>202</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>47</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>78</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>165</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>204</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>78</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>64</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2317.6999999999998</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3472,10 +3664,35 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>BRISTAFLAM 100 MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -200,6 +209,24 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -509,9 +536,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -626,7 +650,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:45 PM</t>
+    <t>Saturday, 13 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1621,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1630,7 +1654,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1640,11 +1664,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1656,14 +1680,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1680,7 +1704,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1696,7 +1720,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1729,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1755,7 +1779,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1772,11 +1796,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>45</v>
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,11 +1829,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>45</v>
@@ -1821,31 +1845,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,14 +1895,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1887,28 +1911,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>45</v>
@@ -1920,31 +1944,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,31 +2010,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2040,7 +2064,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,11 +2093,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>45</v>
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2125,7 +2149,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2139,7 +2163,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2151,31 +2175,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,28 +2274,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2283,14 +2307,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2324,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>126</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,28 +2373,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2423,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2455,7 +2479,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,7 +2694,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2686,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,28 +2736,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>45</v>
@@ -2745,31 +2769,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,31 +2802,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,31 +2835,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,28 +2868,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>45</v>
@@ -2877,31 +2901,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,31 +2934,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,31 +2967,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,31 +3000,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>188</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,31 +3033,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3049,24 +3073,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3099,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,28 +3132,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>45</v>
@@ -3141,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,28 +3198,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>45</v>
@@ -3207,28 +3231,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>45</v>
@@ -3240,28 +3264,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>45</v>
@@ -3273,7 +3297,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3286,18 +3310,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3306,66 +3330,165 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2317.6999999999998</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>205</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>206</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>207</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>187</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>87</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>90</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>47</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>87</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>174</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>212</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>87</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>73</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2670.6999999999998</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>213</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>214</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>215</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3689,10 +3812,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:46 PM</t>
+    <t>Saturday, 13 September, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -239,13 +239,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:2</t>
+    <t>11:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -650,7 +650,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:49 PM</t>
+    <t>Saturday, 13 September, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1869,7 +1869,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -3458,7 +3458,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>2670.6999999999998</v>
+        <v>2686.54</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:53 PM</t>
+    <t>Saturday, 13 September, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -128,10 +140,16 @@
     <t>AZATHIOPRINE RPG 50 MG 30 TABS.</t>
   </si>
   <si>
+    <t>-6:-1</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>63.3600</t>
+    <t>735.3600</t>
+  </si>
+  <si>
+    <t>7:2</t>
   </si>
   <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
@@ -359,9 +377,6 @@
     <t>KEVORK 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>46.5000</t>
   </si>
   <si>
@@ -407,6 +422,18 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -650,7 +677,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 6:54 PM</t>
+    <t>Saturday, 13 September, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1516,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1499,14 +1526,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1515,14 +1542,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,14 +1559,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1548,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1565,14 +1592,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1581,14 +1608,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1598,14 +1625,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1614,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,11 +1658,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1647,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1664,11 +1691,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1680,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1713,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1730,14 +1757,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,14 +1790,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1796,14 +1823,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1889,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,31 +1971,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,31 +2004,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,31 +2037,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,31 +2070,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,11 +2285,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2274,28 +2301,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2307,28 +2334,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,31 +2400,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,28 +2433,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2439,14 +2466,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,31 +2499,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2604,7 +2631,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2621,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,31 +2862,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,31 +2895,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,31 +2928,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,31 +2961,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,31 +2994,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,31 +3027,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,31 +3093,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>160</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,7 +3126,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3112,18 +3139,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>196</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,31 +3159,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3258,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3291,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3324,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3357,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,31 +3390,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,31 +3423,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,66 +3456,132 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2686.54</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>213</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>214</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>215</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>219</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>53</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>93</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>183</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>221</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>93</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>79</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3451.23</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>222</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>223</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>224</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3827,10 +3920,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -467,6 +467,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -536,6 +545,9 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -677,7 +689,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:00 PM</t>
+    <t>Saturday, 13 September, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2652,7 +2664,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>51</v>
@@ -2664,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2681,11 +2693,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>51</v>
@@ -2704,7 +2716,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2718,7 +2730,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>51</v>
@@ -2730,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2770,7 +2782,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,11 +2792,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2919,7 +2931,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2935,21 +2947,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>51</v>
@@ -2961,31 +2973,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,7 +3204,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>205</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>53</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,11 +3320,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>51</v>
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3374,11 +3386,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>51</v>
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,11 +3419,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>51</v>
@@ -3423,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>51</v>
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>51</v>
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,49 +3551,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3451.23</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>222</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>223</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>53</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>93</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>187</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>224</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>225</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>93</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>79</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3664.23</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>226</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>227</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>228</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3930,10 +4008,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -287,6 +299,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>192.50</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -599,15 +623,12 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>50:0</t>
+    <t>49:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -629,6 +650,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -665,9 +695,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -677,7 +704,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -689,7 +716,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:07 PM</t>
+    <t>Saturday, 13 September, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1941,7 +1968,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2023,21 +2050,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>51</v>
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2082,28 +2109,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>51</v>
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2155,21 +2182,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>51</v>
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2297,11 +2324,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2313,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2346,28 +2373,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2379,7 +2406,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2396,11 +2423,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2412,31 +2439,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2445,28 +2472,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,31 +2538,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2544,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2590,7 +2617,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2601,7 +2628,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2617,7 +2644,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2634,7 +2661,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,11 +2753,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>51</v>
@@ -2742,7 +2769,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2759,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>51</v>
@@ -2775,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2808,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2862,10 +2889,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2881,7 +2908,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2984,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>51</v>
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,28 +3033,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>51</v>
@@ -3039,31 +3066,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,31 +3099,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,31 +3132,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,31 +3165,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3184,7 +3211,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3195,7 +3222,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3211,24 +3238,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,31 +3264,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>172</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3270,7 +3297,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3283,18 +3310,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>209</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,31 +3330,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3343,24 +3370,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,31 +3396,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,28 +3429,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>51</v>
@@ -3435,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,28 +3495,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>51</v>
@@ -3501,28 +3528,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>51</v>
@@ -3534,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3580,18 +3607,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,66 +3627,165 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3664.23</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>226</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>227</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>228</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>230</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>224</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>101</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>104</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>232</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>53</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>101</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>195</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>233</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>234</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>101</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>79</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3815.1100000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>235</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>236</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>237</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4018,10 +4144,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -413,6 +413,15 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>MEGAMOX 1GM 14 F.C. TAB.</t>
   </si>
   <si>
@@ -716,7 +725,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:13 PM</t>
+    <t>Saturday, 13 September, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2479,7 +2488,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,31 +2547,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2584,11 +2593,11 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2617,18 +2626,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,20 +2646,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2661,7 +2670,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>152</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2743,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2760,7 +2769,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2790,7 +2799,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>51</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>51</v>
@@ -2842,7 +2851,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2856,7 +2865,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>51</v>
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2908,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>180</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3106,24 +3115,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>51</v>
@@ -3186,10 +3195,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3219,7 +3228,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>53</v>
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>53</v>
@@ -3285,10 +3294,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3318,10 +3327,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,7 +3339,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,7 +3372,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3420,7 +3429,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>219</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>222</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3469,7 +3478,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,7 +3537,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3545,11 +3554,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>51</v>
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,7 +3653,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>53</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,49 +3752,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>237</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>101</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>79</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q79" s="12">
+      <c t="s" r="Q80" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3815.1100000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>235</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>236</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>237</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3852.73</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>238</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>239</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>240</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4159,10 +4201,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DOLPHIN K 75MG/3ML I.M. 6 AMP</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>5.2800</t>
+  </si>
+  <si>
     <t>ENEMAX ENEMA 120 ML</t>
   </si>
   <si>
@@ -341,6 +359,18 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -659,6 +689,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -677,9 +713,6 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -725,7 +758,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:15 PM</t>
+    <t>Saturday, 13 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2026,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2036,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2052,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2043,7 +2076,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2059,7 +2092,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,11 +2102,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>51</v>
@@ -2085,14 +2118,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2135,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2118,28 +2151,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>51</v>
@@ -2151,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2175,7 +2208,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2191,21 +2224,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>51</v>
@@ -2217,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,11 +2267,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2250,28 +2283,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>51</v>
@@ -2283,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2323,7 +2356,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,11 +2366,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2349,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2399,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>51</v>
@@ -2382,14 +2415,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,11 +2432,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2415,14 +2448,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,11 +2465,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2448,20 +2481,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2469,10 +2502,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2514,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,11 +2531,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2514,7 +2547,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2531,11 +2564,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2547,31 +2580,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,28 +2613,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2613,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2646,31 +2679,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2686,24 +2719,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,11 +2762,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2745,31 +2778,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2818,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2861,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,7 +2910,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2894,11 +2927,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>51</v>
@@ -2910,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2943,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2993,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +3009,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2997,10 +3030,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>183</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3141,31 +3174,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,28 +3207,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>51</v>
@@ -3207,20 +3240,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3228,10 +3261,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,31 +3273,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,7 +3319,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3294,10 +3327,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,7 +3352,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3327,10 +3360,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,20 +3372,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3360,10 +3393,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,31 +3405,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>183</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,28 +3438,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>51</v>
@@ -3438,7 +3471,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3451,18 +3484,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>222</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,31 +3504,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3537,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3570,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,28 +3603,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>51</v>
@@ -3603,28 +3636,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>53</v>
@@ -3636,28 +3669,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>51</v>
@@ -3669,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>51</v>
@@ -3702,28 +3735,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>53</v>
@@ -3735,7 +3768,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3748,18 +3781,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,66 +3801,165 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3852.73</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>244</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>238</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>239</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>240</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>107</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>110</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>246</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>53</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>107</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>208</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>247</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>248</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>107</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>79</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3937.8850000000002</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>249</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>250</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>251</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4206,10 +4338,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -452,6 +461,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>MEGAMOX 1GM 14 F.C. TAB.</t>
   </si>
   <si>
@@ -530,6 +548,12 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
   </si>
   <si>
@@ -563,12 +587,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -644,9 +662,6 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -689,30 +704,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -758,7 +776,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:36 PM</t>
+    <t>Saturday, 13 September, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1795,7 +1813,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1828,7 +1846,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1838,11 +1856,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1878,7 +1896,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1894,7 +1912,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1927,7 +1945,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1960,7 +1978,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1993,7 +2011,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2059,7 +2077,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2109,7 +2127,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2142,7 +2160,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2158,7 +2176,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2217,31 +2235,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2257,24 +2275,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2290,24 +2308,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,31 +2334,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,11 +2384,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2439,7 +2457,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2455,7 +2473,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2469,7 +2487,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2498,14 +2516,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2521,7 +2539,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,11 +2582,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2580,28 +2598,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2620,21 +2638,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2653,7 +2671,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2686,7 +2704,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2712,28 +2730,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2745,14 +2763,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2791,18 +2809,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>165</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,31 +2862,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2934,7 +2952,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2950,7 +2968,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2964,10 +2982,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,7 +3011,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3030,7 +3048,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>51</v>
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,7 +3100,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>193</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3209,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,7 +3265,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,31 +3291,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,28 +3324,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>51</v>
@@ -3339,31 +3357,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3372,31 +3390,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,31 +3423,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,31 +3489,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,31 +3522,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>227</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,28 +3555,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>51</v>
@@ -3570,7 +3588,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3583,18 +3601,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>227</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,31 +3621,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,31 +3654,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,31 +3687,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>51</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3709,21 +3727,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>51</v>
@@ -3735,28 +3753,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>53</v>
@@ -3768,28 +3786,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>51</v>
@@ -3801,28 +3819,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>51</v>
@@ -3834,28 +3852,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>53</v>
@@ -3867,7 +3885,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3880,18 +3898,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,66 +3918,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3937.8850000000002</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>249</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>250</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>244</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>110</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>113</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>251</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>252</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>53</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>110</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>214</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>253</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>254</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>110</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>82</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3999.7150000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>255</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>256</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>257</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4353,10 +4470,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>44.9000</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -776,7 +785,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 7:56 PM</t>
+    <t>Saturday, 13 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2374,7 +2383,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2457,7 +2466,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2490,7 +2499,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2506,7 +2515,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2520,7 +2529,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,11 +2624,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2631,28 +2640,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2671,21 +2680,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2704,7 +2713,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2721,7 +2730,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2737,7 +2746,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2754,7 +2763,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2796,31 +2805,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2842,11 +2851,11 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2875,18 +2884,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,20 +2904,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2919,7 +2928,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>171</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3001,7 +3010,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,7 +3053,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3081,7 +3090,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>51</v>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,11 +3119,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>51</v>
@@ -3133,7 +3142,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>51</v>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>199</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3397,24 +3406,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>51</v>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>53</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>53</v>
@@ -3576,10 +3585,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3609,10 +3618,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,7 +3630,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>232</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3671,14 +3680,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>235</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,7 +3720,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>239</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>242</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3760,7 +3769,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>51</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,7 +3944,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>116</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>53</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,49 +4043,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>256</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>257</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>110</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>82</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>83</v>
       </c>
-      <c t="s" r="Q86" s="12">
+      <c t="s" r="Q87" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3999.7150000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>255</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>256</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>257</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4075.7150000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>258</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>259</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>260</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4485,10 +4527,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -524,18 +533,21 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
     <t>752.00</t>
   </si>
   <si>
-    <t>112.8000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -638,6 +650,15 @@
     <t>ZINCOSIL CREAM 20 GM</t>
   </si>
   <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -713,10 +734,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -773,7 +794,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -785,7 +806,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 8:13 PM</t>
+    <t>Saturday, 13 September, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2614,7 +2635,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2673,28 +2694,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2713,21 +2734,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2746,7 +2767,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2763,7 +2784,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2779,7 +2800,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2796,7 +2817,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,31 +2859,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2884,11 +2905,11 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2917,18 +2938,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,20 +2958,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2961,7 +2982,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>174</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>51</v>
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,11 +3173,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>51</v>
@@ -3168,7 +3189,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3185,11 +3206,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>51</v>
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3255,10 +3276,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>202</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>116</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>51</v>
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3423,7 +3444,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3439,21 +3460,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>51</v>
@@ -3465,28 +3486,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>51</v>
@@ -3498,31 +3519,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>235</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>51</v>
@@ -3729,7 +3750,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3746,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>242</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3779,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>51</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3812,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3845,14 +3866,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>51</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3878,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>51</v>
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3911,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>53</v>
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3944,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>51</v>
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3977,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>51</v>
@@ -3993,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4010,11 +4031,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>53</v>
@@ -4026,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4043,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4076,49 +4097,148 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4075.7150000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>258</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>259</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>260</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>261</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>110</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>113</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>262</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>53</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>110</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>224</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>263</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>264</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>110</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>82</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4404.915</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>265</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>266</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>267</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4532,10 +4652,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -575,6 +575,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
   </si>
   <si>
@@ -686,6 +695,15 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -725,6 +743,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -770,6 +791,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>101:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -791,6 +818,15 @@
     <t>ماء ورد ايفا</t>
   </si>
   <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -803,10 +839,13 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>Saturday, 13 September, 2025 8:15 PM</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 13 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3163,7 +3202,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3180,7 +3219,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3210,7 +3249,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>51</v>
@@ -3222,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,11 +3278,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>51</v>
@@ -3262,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3276,7 +3315,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>51</v>
@@ -3288,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3377,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3354,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3542,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>51</v>
@@ -3526,7 +3565,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3543,7 +3582,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3559,24 +3598,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3602,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>51</v>
@@ -3635,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>228</v>
+        <v>116</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3684,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3740,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>242</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,11 +3872,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>51</v>
@@ -3849,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>249</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,11 +4004,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>51</v>
@@ -3981,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>51</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4021,7 +4060,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>83</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>53</v>
+        <v>261</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>51</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4136,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4185,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,49 +4235,280 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q90" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>267</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>53</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>110</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>227</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4404.915</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>265</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>266</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>267</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>268</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>116</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>110</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>227</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>269</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>116</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>110</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>82</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>270</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>271</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>110</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>157</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>272</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>273</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>110</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>113</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>274</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>53</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>110</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>227</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>276</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>110</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>82</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4597.915</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>278</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>279</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>280</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4667,10 +4937,45 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -551,13 +551,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:10</t>
+    <t>0:9</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>SERIOPRAZOLE 40 MG 20 CAPS.</t>
@@ -3120,7 +3120,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -4478,7 +4478,7 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>4597.915</v>
+        <v>4604.9650000000001</v>
       </c>
       <c r="Q98" s="13"/>
     </row>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
   </si>
   <si>
     <t>ماء ورد ايفا</t>
@@ -4291,7 +4294,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4334,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>51</v>
@@ -4357,7 +4360,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,11 +4370,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>51</v>
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>116</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4456,7 +4459,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,49 +4469,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>53</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4604.9650000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>277</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>110</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>82</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>278</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q98" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4639.9650000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>279</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>280</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>281</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4972,10 +5008,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AZATHIOPRINE RPG 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -164,9 +185,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
@@ -185,9 +203,6 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>39.6000</t>
-  </si>
-  <si>
     <t>BRISTAFLAM 100 MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -449,9 +464,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -533,6 +545,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PHENADONE SYRUP 100 ML</t>
   </si>
   <si>
@@ -542,6 +563,12 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -572,9 +599,6 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -623,168 +647,165 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8274:0</t>
+    <t>8272:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>38:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -848,7 +869,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 8:18 PM</t>
+    <t>Saturday, 13 September, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1675,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1697,11 +1718,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1730,14 +1751,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1779,14 +1800,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1869,7 +1890,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1899,7 +1920,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,11 +1949,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1961,11 +1982,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,14 +2328,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2406,31 +2427,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,31 +2493,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2571,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2644,7 +2665,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2661,7 +2682,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2677,7 +2698,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2691,10 +2712,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2769,28 +2790,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2835,31 +2856,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,28 +2955,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,31 +3021,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3066,31 +3087,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3236,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3403,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3429,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>209</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>51</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,31 +3648,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,31 +3681,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,31 +3714,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,31 +3747,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,31 +3780,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,31 +3813,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,31 +3846,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,31 +3879,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,31 +3912,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,31 +3945,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,31 +3978,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>249</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,31 +4011,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,31 +4044,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>256</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,31 +4077,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>51</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,31 +4110,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>212</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,31 +4143,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,31 +4176,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>51</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,31 +4209,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>28</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,31 +4242,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>53</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,31 +4275,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,31 +4308,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4320,31 +4341,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,31 +4374,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,31 +4407,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,31 +4440,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,31 +4473,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,66 +4506,198 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>278</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4639.9650000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
         <v>279</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>115</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>161</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>280</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
         <v>281</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>115</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>118</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>59</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>115</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>233</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>284</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>115</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>87</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4927.5649999999996</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>286</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>287</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>288</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5013,10 +5166,30 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -440,6 +452,12 @@
     <t>68.00</t>
   </si>
   <si>
+    <t>ILEX D PLUS DROPS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -869,7 +887,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 8:44 PM</t>
+    <t>Saturday, 13 September, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2071,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2081,11 +2099,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>48</v>
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2114,11 +2132,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>48</v>
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>48</v>
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2180,11 +2198,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>48</v>
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2220,7 +2238,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2236,7 +2254,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,11 +2264,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2286,7 +2304,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2302,7 +2320,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2328,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2361,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2385,7 +2403,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,7 +2436,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2434,24 +2452,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,31 +2478,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2493,20 +2511,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2517,7 +2535,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2533,21 +2551,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>48</v>
@@ -2559,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2583,7 +2601,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2632,7 +2650,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,14 +2676,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2693,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2724,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2757,7 +2775,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2770,11 +2788,11 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2797,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2830,7 +2848,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2856,28 +2874,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,7 +2924,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2929,24 +2947,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2962,7 +2980,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2995,7 +3013,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,28 +3039,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3100,18 +3118,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3137,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3153,20 +3171,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3193,7 +3211,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3306,10 +3324,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,11 +3419,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3424,7 +3442,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3438,10 +3456,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3483,7 +3501,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3500,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>48</v>
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>121</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>48</v>
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3787,21 +3805,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>48</v>
@@ -3813,20 +3831,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3834,10 +3852,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,28 +3864,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>48</v>
@@ -3879,28 +3897,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>48</v>
@@ -3912,31 +3930,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,31 +3963,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3991,15 +4009,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>59</v>
@@ -4011,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,31 +4128,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>255</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4143,7 +4161,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4156,18 +4174,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4189,18 +4207,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>262</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,28 +4227,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>48</v>
@@ -4242,31 +4260,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>162</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>219</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4288,18 +4306,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4359,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4374,31 +4392,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,28 +4425,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
@@ -4440,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,24 +4491,24 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4506,28 +4524,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>48</v>
@@ -4539,28 +4557,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>48</v>
@@ -4572,31 +4590,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,31 +4623,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,66 +4656,132 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>288</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>59</v>
       </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4927.5649999999996</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>286</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>287</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>288</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>119</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>239</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>289</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>290</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>119</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>91</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5018.5649999999996</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>292</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>293</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>294</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5186,10 +5270,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -887,7 +896,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 8:45 PM</t>
+    <t>Saturday, 13 September, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,7 +2725,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2733,7 +2742,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2763,7 +2772,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2775,31 +2784,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,24 +2817,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2848,7 +2857,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2881,7 +2890,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2933,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2940,28 +2949,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2980,21 +2989,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3013,7 +3022,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3030,7 +3039,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3063,7 +3072,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,31 +3114,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3151,11 +3160,11 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3184,18 +3193,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,20 +3213,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3228,7 +3237,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,7 +3270,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,11 +3296,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>48</v>
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3357,10 +3366,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3393,7 +3402,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,7 +3531,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>48</v>
@@ -3534,14 +3543,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,11 +3560,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>48</v>
@@ -3574,7 +3583,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3588,7 +3597,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>48</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>141</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>222</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>48</v>
@@ -3838,7 +3847,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3855,7 +3864,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3871,24 +3880,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3923,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>48</v>
@@ -3937,7 +3946,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>48</v>
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>59</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4088,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>59</v>
@@ -4116,10 +4125,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>48</v>
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,7 +4203,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>261</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,7 +4293,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>268</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>270</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>48</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>225</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>59</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,7 +4434,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,7 +4550,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4557,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,7 +4583,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4590,7 +4599,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>48</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,11 +4649,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>48</v>
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4731,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>59</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,49 +4748,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5018.5649999999996</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>292</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
         <v>293</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>119</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>91</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>294</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5103.5649999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>295</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>296</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>297</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5280,10 +5322,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -77,24 +77,36 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHAVIM 600 - 20 CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -155,7 +167,13 @@
     <t>169.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
   </si>
   <si>
     <t>AZATHIOPRINE RPG 50 MG 30 TABS.</t>
@@ -314,13 +332,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:1</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
@@ -407,9 +428,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -686,9 +704,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
@@ -896,7 +911,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 8:52 PM</t>
+    <t>Saturday, 13 September, 2025 9:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1620,7 +1635,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1702,7 +1717,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1712,14 +1727,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1728,14 +1743,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1752,7 +1767,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1801,7 +1816,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1811,14 +1826,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1834,7 +1849,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1844,14 +1859,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1910,14 +1925,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1966,7 +1981,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1976,14 +1991,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1992,7 +2007,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2009,11 +2024,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2032,7 +2047,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2065,7 +2080,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2075,11 +2090,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2181,7 +2196,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2197,7 +2212,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2214,7 +2229,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2230,7 +2245,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2247,7 +2262,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2263,7 +2278,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2273,14 +2288,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2322,14 +2337,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2412,7 +2427,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2445,7 +2460,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2461,7 +2476,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2487,31 +2502,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2527,7 +2542,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2553,31 +2568,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2593,7 +2608,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2610,7 +2625,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2632,7 +2647,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2643,7 +2658,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2659,7 +2674,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2669,14 +2684,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2742,7 +2757,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2758,7 +2773,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2775,7 +2790,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2791,7 +2806,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2805,10 +2820,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2817,31 +2832,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,31 +2898,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2923,7 +2938,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2956,7 +2971,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2982,28 +2997,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,7 +3047,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3055,24 +3070,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3088,7 +3103,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3121,7 +3136,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3131,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3147,28 +3162,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,18 +3241,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,11 +3278,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3279,20 +3294,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3303,7 +3318,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3319,7 +3334,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3344,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3418,7 +3433,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3432,10 +3447,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3550,7 +3565,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3564,10 +3579,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>225</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3814,7 +3829,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3847,7 +3862,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3906,31 +3921,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3946,24 +3961,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3979,24 +3994,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4005,31 +4020,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,31 +4053,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4071,31 +4086,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4104,31 +4119,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,31 +4152,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4170,31 +4185,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4210,24 +4225,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4236,31 +4251,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>264</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4276,13 +4291,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4290,10 +4305,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4302,31 +4317,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,31 +4350,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,31 +4383,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,31 +4416,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,31 +4449,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>48</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4467,31 +4482,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,31 +4515,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4533,31 +4548,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,31 +4581,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,31 +4614,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,31 +4647,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,31 +4680,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,31 +4713,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,31 +4746,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,66 +4779,132 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5103.5649999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>295</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>296</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>65</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>126</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>247</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>297</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>298</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>126</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>97</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5524.1149999999998</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>300</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>301</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>302</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5327,10 +5408,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -299,6 +299,21 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>376.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -341,9 +356,6 @@
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
@@ -377,9 +389,6 @@
     <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>192.50</t>
   </si>
   <si>
@@ -785,12 +794,12 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>49:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -827,7 +836,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -875,6 +884,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -896,7 +908,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -905,13 +920,10 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:00 PM</t>
+    <t>Saturday, 13 September, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2323,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2403,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2443,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2526,7 +2538,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2559,7 +2571,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2575,24 +2587,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2608,24 +2620,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2641,24 +2653,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2667,20 +2679,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2707,7 +2719,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2724,7 +2736,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2740,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,11 +2762,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2790,7 +2802,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2806,7 +2818,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2839,7 +2851,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2856,7 +2868,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2872,7 +2884,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2886,7 +2898,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2898,31 +2910,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2931,24 +2943,24 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2971,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3004,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,11 +3059,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3063,28 +3075,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3103,21 +3115,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3136,7 +3148,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3153,7 +3165,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3169,7 +3181,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3186,7 +3198,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3228,31 +3240,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3274,11 +3286,11 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3307,18 +3319,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>57</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,20 +3339,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3351,7 +3363,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3367,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3384,7 +3396,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3400,7 +3412,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3410,11 +3422,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3480,10 +3492,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3516,7 +3528,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3532,7 +3544,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3598,7 +3610,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3615,7 +3627,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,7 +3657,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3697,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3711,7 +3723,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3723,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,11 +3785,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3829,7 +3841,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3961,7 +3973,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3978,7 +3990,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3994,24 +4006,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,28 +4032,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>23</v>
@@ -4060,21 +4072,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4086,28 +4098,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4119,31 +4131,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,28 +4164,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>65</v>
@@ -4185,28 +4197,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>65</v>
@@ -4225,24 +4237,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,28 +4263,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4284,31 +4296,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4317,7 +4329,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4330,18 +4342,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>269</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4363,18 +4375,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>272</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4396,7 +4408,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4407,7 +4419,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>276</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,31 +4461,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,31 +4494,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,31 +4527,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,7 +4560,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4561,15 +4573,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>23</v>
@@ -4581,31 +4593,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,31 +4626,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,24 +4659,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4680,24 +4692,24 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4713,28 +4725,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4746,28 +4758,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4779,31 +4791,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4812,31 +4824,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,66 +4857,99 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5524.1149999999998</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>300</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>301</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>302</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>299</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>129</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>102</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6009.1149999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>304</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>305</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>306</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5418,10 +5463,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -386,6 +386,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>EURONEMIA 100MG/5ML 5 AMP FOR I.V. OR INF.</t>
   </si>
   <si>
@@ -891,6 +900,12 @@
   </si>
   <si>
     <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>ماء ورد ايفا</t>
@@ -2587,7 +2602,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2604,7 +2619,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2620,24 +2635,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,24 +2668,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,24 +2701,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,20 +2727,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2752,7 +2767,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2769,7 +2784,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2800,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,11 +2810,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2811,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2835,7 +2850,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2884,7 +2899,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2901,7 +2916,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2917,7 +2932,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2931,7 +2946,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2943,31 +2958,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2976,24 +2991,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3016,7 +3031,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3049,7 +3064,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3082,7 +3097,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,11 +3107,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3108,28 +3123,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3148,21 +3163,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3181,7 +3196,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3198,7 +3213,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3214,7 +3229,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3231,7 +3246,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,31 +3288,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3319,11 +3334,11 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3352,18 +3367,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3372,20 +3387,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3396,7 +3411,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3412,7 +3427,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3429,7 +3444,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3445,7 +3460,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,14 +3519,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3525,10 +3540,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3561,7 +3576,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3643,7 +3658,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3660,7 +3675,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,7 +3705,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3742,7 +3757,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3756,7 +3771,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3889,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,11 +3998,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4006,7 +4021,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4023,7 +4038,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4039,24 +4054,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,28 +4080,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4105,21 +4120,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4131,28 +4146,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4164,31 +4179,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4197,28 +4212,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>65</v>
@@ -4230,20 +4245,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4254,7 +4269,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4270,24 +4285,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,28 +4311,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4329,31 +4344,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,7 +4377,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4375,18 +4390,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>272</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4408,18 +4423,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>135</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4441,7 +4456,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4452,7 +4467,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>279</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4461,31 +4476,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4509,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>236</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,20 +4542,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4548,10 +4563,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>65</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4575,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,7 +4608,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4606,15 +4621,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4626,31 +4641,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4674,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,24 +4707,24 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4725,24 +4740,24 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4758,28 +4773,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4791,28 +4806,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>138</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4824,31 +4839,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4864,24 +4879,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,66 +4905,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>306</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6009.1149999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>132</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>253</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
         <v>304</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>305</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>306</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>132</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>102</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6051.8850000000002</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>309</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>310</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>311</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5468,10 +5549,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -314,6 +314,30 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>COVAPRENDO 10/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>201.00</t>
+  </si>
+  <si>
+    <t>-132.6600</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>COVAPRENDO 5/10MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -443,6 +467,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -938,7 +971,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:02 PM</t>
+    <t>Saturday, 13 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1810,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2371,7 +2404,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2388,7 +2421,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,14 +2447,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2447,14 +2480,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2463,14 +2496,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2480,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2496,7 +2529,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2579,11 +2612,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,11 +2645,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2628,14 +2661,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,14 +2678,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2661,7 +2694,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2674,18 +2707,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,14 +2744,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,28 +2760,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2777,14 +2810,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,31 +2826,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2826,14 +2859,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,14 +2876,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2876,11 +2909,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>23</v>
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,11 +2975,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2991,7 +3024,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3004,15 +3037,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -3024,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3041,14 +3074,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,14 +3107,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3090,31 +3123,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3173,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3156,31 +3189,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3239,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3222,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,28 +3288,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3288,14 +3321,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3321,31 +3354,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3354,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3371,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3387,31 +3420,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,28 +3453,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3453,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3486,28 +3519,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3519,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3585,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3618,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3684,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,11 +3767,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3750,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,7 +3816,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3800,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3816,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3849,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3981,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,14 +3998,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,7 +4047,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4031,11 +4064,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4047,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,28 +4113,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4113,28 +4146,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4146,31 +4179,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,28 +4212,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4212,31 +4245,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>182</v>
+        <v>264</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,31 +4278,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4278,31 +4311,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,31 +4344,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4351,24 +4384,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,31 +4410,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,31 +4443,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>275</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,31 +4476,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,7 +4509,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4489,18 +4522,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>282</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,31 +4542,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q96" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4549,24 +4582,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>288</v>
+        <v>31</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>239</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,31 +4608,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>65</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,28 +4641,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4641,31 +4674,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>250</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,31 +4707,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,28 +4740,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>23</v>
@@ -4740,28 +4773,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4773,31 +4806,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,24 +4839,24 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4839,28 +4872,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>23</v>
@@ -4872,28 +4905,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4905,31 +4938,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,31 +4971,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,66 +5004,165 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q110" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>314</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>315</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>140</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>143</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>317</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
         <v>65</v>
       </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6051.8850000000002</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>309</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>310</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>311</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>140</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>264</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>318</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>315</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>140</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>110</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6172.4849999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>320</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>321</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>322</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5559,10 +5691,25 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -641,6 +641,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -701,9 +710,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>STRONGVILLE MEN HAIR SHAMPOO &amp; CONDITIONER 120 ML</t>
   </si>
   <si>
@@ -971,7 +977,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:20 PM</t>
+    <t>Saturday, 13 September, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3559,7 +3565,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3592,7 +3598,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3609,7 +3615,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3625,7 +3631,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>23</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3705,10 +3711,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3741,7 +3747,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3757,7 +3763,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3829,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3837,10 +3843,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>23</v>
@@ -3889,7 +3895,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3903,7 +3909,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3955,7 +3961,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>62</v>
+        <v>253</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,31 +4218,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4252,7 +4258,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>23</v>
@@ -4278,14 +4284,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4394,11 +4400,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>65</v>
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>23</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>286</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,7 +4581,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>146</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,7 +4614,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>293</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>65</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4747,7 +4753,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,7 +4779,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>23</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4846,7 +4852,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,7 +4895,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>23</v>
@@ -4945,7 +4951,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4971,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,49 +5126,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6172.4849999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>320</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>317</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>140</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>110</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>321</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6195.4849999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>322</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>323</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>324</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5706,10 +5745,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -602,9 +611,6 @@
     <t>178.00</t>
   </si>
   <si>
-    <t>89.0000</t>
-  </si>
-  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -755,12 +761,18 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8272:0</t>
+    <t>8270:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
@@ -956,9 +968,6 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -977,7 +986,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:21 PM</t>
+    <t>Saturday, 13 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2386,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>104</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2493,7 +2502,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2575,7 +2584,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2658,7 +2667,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2674,7 +2683,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2724,7 +2733,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2757,7 +2766,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2773,24 +2782,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2806,24 +2815,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2839,24 +2848,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2865,20 +2874,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2938,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2955,7 +2964,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3037,7 +3046,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3070,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3087,7 +3096,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3103,7 +3112,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3117,7 +3126,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3129,31 +3138,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3162,24 +3171,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3202,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3235,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3268,7 +3277,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3294,28 +3303,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3334,21 +3343,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3367,7 +3376,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3384,7 +3393,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3400,7 +3409,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3417,7 +3426,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3466,24 +3475,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3492,28 +3501,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3525,31 +3534,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,31 +3567,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3591,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,7 +3683,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3697,7 +3706,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3862,7 +3871,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3876,10 +3885,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,7 +3897,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3928,7 +3937,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,11 +3980,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3994,7 +4003,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,11 +4046,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4159,7 +4168,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4251,31 +4260,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4284,28 +4293,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>23</v>
@@ -4317,28 +4326,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4350,28 +4359,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4383,31 +4392,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,28 +4425,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>65</v>
@@ -4456,24 +4465,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4482,20 +4491,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4506,7 +4515,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4522,21 +4531,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4548,31 +4557,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,7 +4590,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4594,18 +4603,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>288</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4627,18 +4636,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>146</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,7 +4656,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4660,18 +4669,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>295</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4687,24 +4696,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>299</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4726,18 +4735,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>252</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,31 +4755,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,31 +4788,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,7 +4821,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4825,15 +4834,15 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>23</v>
@@ -4845,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4878,31 +4887,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,24 +4920,24 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4944,28 +4953,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4977,28 +4986,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5010,28 +5019,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>23</v>
@@ -5043,28 +5052,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5076,31 +5085,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>318</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>130</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5116,24 +5125,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5142,66 +5151,99 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6195.4849999999997</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>322</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>323</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>320</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>143</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>113</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>324</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6288.4849999999997</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>325</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>326</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>327</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5750,10 +5792,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:22 PM</t>
+    <t>Saturday, 13 September, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -206,15 +206,15 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
   </si>
   <si>
@@ -515,6 +515,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
   </si>
   <si>
@@ -539,6 +548,9 @@
     <t>68.00</t>
   </si>
   <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>ILEX D PLUS DROPS</t>
   </si>
   <si>
@@ -644,9 +656,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -680,6 +689,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -731,6 +749,9 @@
     <t>58.00</t>
   </si>
   <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
@@ -740,6 +761,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
@@ -884,10 +914,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -969,9 +996,6 @@
   </si>
   <si>
     <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>15:0</t>
   </si>
   <si>
     <t>120.0000</t>
@@ -2056,7 +2080,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2188,7 +2212,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2518,7 +2542,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -3112,7 +3136,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3129,7 +3153,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3145,7 +3169,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3159,7 +3183,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3171,28 +3195,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>23</v>
@@ -3204,28 +3228,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -3237,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,11 +3278,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3270,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,14 +3311,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3320,11 +3344,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3336,28 +3360,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3369,28 +3393,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3402,14 +3426,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3419,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3468,7 +3492,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,31 +3525,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3534,28 +3558,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3567,31 +3591,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3607,24 +3631,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3640,7 +3664,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3673,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3690,7 +3714,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3706,7 +3730,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,11 +3740,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3789,7 +3813,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3805,7 +3829,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3819,10 +3843,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,14 +3872,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3864,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,11 +3905,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3897,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3963,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,11 +4004,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3996,7 +4020,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4013,11 +4037,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -4029,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4103,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4119,7 +4143,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>253</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,11 +4169,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4168,7 +4192,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4251,7 +4275,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4293,31 +4317,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,28 +4350,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>23</v>
@@ -4359,28 +4383,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4392,31 +4416,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4425,14 +4449,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4466,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4499,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4524,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4565,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>285</v>
+        <v>113</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4557,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4590,14 +4614,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4630,7 +4654,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4664,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>292</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4663,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4673,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>149</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>299</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4722,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>305</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4788,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>23</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4861,7 +4885,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,11 +4895,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>23</v>
@@ -4887,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>149</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,14 +4977,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,11 +4994,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -4986,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,11 +5027,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>23</v>
@@ -5019,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5060,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5085,14 +5109,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5118,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>320</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5151,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,14 +5192,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5184,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5205,45 +5229,177 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6288.4849999999997</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>325</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>326</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>327</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>263</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>143</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>200</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>328</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>301</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>143</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>146</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>330</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>67</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>143</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>280</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>331</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>301</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>143</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>113</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6658.8450000000003</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>333</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>334</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>335</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5797,10 +5953,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -1010,7 +1010,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:25 PM</t>
+    <t>Saturday, 13 September, 2025 9:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -347,6 +347,18 @@
     <t>73.2600</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>DELTARHINO NASAL SPRAY 15 ML</t>
   </si>
   <si>
@@ -362,9 +374,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -626,9 +644,6 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -749,6 +764,18 @@
     <t>58.00</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
   </si>
   <si>
@@ -836,9 +863,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -941,9 +965,6 @@
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -1010,7 +1031,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:28 PM</t>
+    <t>Saturday, 13 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2542,7 +2563,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2552,11 +2573,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2592,7 +2613,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2608,7 +2629,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2618,7 +2639,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2641,7 +2662,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2691,7 +2712,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2707,7 +2728,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2724,7 +2745,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2740,7 +2761,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2750,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2790,7 +2811,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2806,7 +2827,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2823,7 +2844,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2839,24 +2860,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2872,24 +2893,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2905,24 +2926,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2931,20 +2952,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -3004,7 +3025,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3021,7 +3042,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3037,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3047,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3063,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3087,7 +3108,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3103,7 +3124,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3136,7 +3157,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3169,7 +3190,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3186,7 +3207,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3202,7 +3223,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3235,24 +3256,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3278,11 +3299,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3294,7 +3315,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3307,11 +3328,11 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3334,7 +3355,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3344,14 +3365,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3367,7 +3388,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3377,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3393,28 +3414,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3426,14 +3447,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3443,7 +3464,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3466,24 +3487,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3499,7 +3520,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3513,7 +3534,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3558,28 +3579,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3591,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3608,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3624,31 +3645,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3657,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3674,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3690,20 +3711,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3711,10 +3732,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3723,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3740,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3773,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3796,7 +3817,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3813,7 +3834,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3829,7 +3850,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3839,14 +3860,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3862,7 +3883,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3872,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3888,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3905,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3938,14 +3959,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3954,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3971,11 +3992,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3987,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4004,11 +4025,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -4027,7 +4048,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4041,10 +4062,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4070,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -4086,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4103,11 +4124,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4136,14 +4157,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,7 +4173,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4169,11 +4190,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>23</v>
@@ -4185,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4223,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4239,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4289,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>263</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4291,7 +4312,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4334,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>63</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>23</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,7 +4404,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4400,11 +4421,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>271</v>
+        <v>88</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4416,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,14 +4454,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4449,28 +4470,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>23</v>
@@ -4482,20 +4503,20 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4503,7 +4524,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>23</v>
@@ -4515,31 +4536,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4548,28 +4569,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>23</v>
@@ -4581,31 +4602,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4614,31 +4635,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4654,24 +4675,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>291</v>
+        <v>117</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>292</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,31 +4701,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,31 +4734,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4753,13 +4774,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4767,10 +4788,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>149</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,31 +4800,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>301</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,31 +4833,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>149</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,7 +4866,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4858,18 +4879,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>308</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4878,31 +4899,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,31 +4932,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>266</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,31 +4965,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>67</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4984,21 +5005,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>113</v>
+        <v>318</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>23</v>
@@ -5010,31 +5031,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>23</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,31 +5064,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,28 +5097,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5109,28 +5130,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5142,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,24 +5196,24 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5208,28 +5229,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>23</v>
@@ -5241,28 +5262,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5274,31 +5295,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,31 +5328,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,66 +5361,165 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q119" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>335</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>309</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>146</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>149</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>337</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6658.8450000000003</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>333</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>334</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>335</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>146</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>288</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>338</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>309</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>146</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>117</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6823.8450000000003</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>340</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>341</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>342</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5973,10 +6093,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:29 PM</t>
+    <t>Saturday, 13 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -983,6 +983,15 @@
     <t>18:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1031,7 +1040,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:35 PM</t>
+    <t>Saturday, 13 September, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5104,7 +5113,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,11 +5123,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>23</v>
@@ -5130,7 +5139,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5147,11 +5156,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>23</v>
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>23</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>72</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>23</v>
@@ -5328,7 +5337,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>23</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>23</v>
@@ -5394,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>136</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>288</v>
+        <v>149</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>309</v>
+        <v>67</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,49 +5486,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>67</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6823.8450000000003</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>340</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>341</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>309</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>146</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>117</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>342</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6898.8450000000003</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>343</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>344</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>345</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6108,10 +6150,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>ALPHAVIM 600 - 20 CAPS.</t>
   </si>
   <si>
@@ -584,6 +593,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -680,6 +698,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -782,9 +809,6 @@
     <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -1040,7 +1064,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:40 PM</t>
+    <t>Saturday, 13 September, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,7 +1771,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1757,11 +1781,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1773,14 +1797,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1790,11 +1814,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1806,14 +1830,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1823,11 +1847,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1839,14 +1863,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1856,11 +1880,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1872,14 +1896,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1896,7 +1920,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1912,7 +1936,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1922,14 +1946,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1938,14 +1962,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1955,11 +1979,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1995,7 +2019,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2011,7 +2035,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2028,7 +2052,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2044,7 +2068,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2127,7 +2151,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -2209,7 +2233,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2242,7 +2266,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2275,7 +2299,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2285,11 +2309,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2358,7 +2382,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2391,7 +2415,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2407,7 +2431,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2424,7 +2448,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2440,7 +2464,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2457,7 +2481,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2473,7 +2497,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>106</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>107</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2622,7 +2646,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2638,7 +2662,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2671,7 +2695,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,7 +2705,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2704,7 +2728,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2754,7 +2778,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2770,7 +2794,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2787,7 +2811,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2803,7 +2827,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2853,7 +2877,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2869,7 +2893,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2886,7 +2910,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,24 +2926,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,24 +2959,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2968,24 +2992,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,20 +3018,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -3018,7 +3042,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3034,7 +3058,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3051,7 +3075,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3067,7 +3091,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3084,7 +3108,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3100,7 +3124,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,11 +3134,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3150,7 +3174,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3166,7 +3190,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3183,7 +3207,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3199,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3216,7 +3240,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,7 +3256,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3249,7 +3273,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3265,7 +3289,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3282,7 +3306,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3298,7 +3322,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3315,7 +3339,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3331,24 +3355,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,31 +3381,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3397,7 +3421,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3414,7 +3438,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3430,24 +3454,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3463,7 +3487,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3489,28 +3513,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,7 +3563,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3562,24 +3586,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3595,7 +3619,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3609,7 +3633,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,28 +3678,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3733,18 +3757,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3760,7 +3784,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,7 +3794,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3793,24 +3817,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3826,7 +3850,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3843,7 +3867,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3859,24 +3883,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,11 +3926,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3918,14 +3942,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3959,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,14 +3975,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,14 +3992,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3991,7 +4015,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4024,7 +4048,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4058,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4124,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4190,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4189,7 +4213,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4289,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4338,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4355,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4388,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4437,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4454,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4487,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>280</v>
+        <v>91</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4552,7 +4576,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4586,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,31 +4602,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,20 +4635,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4632,10 +4656,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,31 +4668,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,31 +4701,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4710,31 +4734,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,31 +4767,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4783,24 +4807,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,31 +4833,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,31 +4866,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4882,13 +4906,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4896,10 +4920,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>152</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,31 +4932,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>309</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,31 +4965,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4974,31 +4998,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>316</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,31 +5031,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>23</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,31 +5064,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>321</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>275</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,31 +5097,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>138</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>67</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,31 +5130,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,31 +5163,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,31 +5196,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>61</v>
+        <v>331</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,31 +5229,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>152</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,31 +5262,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,31 +5295,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,31 +5328,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,31 +5361,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,31 +5394,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,31 +5427,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>206</v>
+        <v>307</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,31 +5460,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,31 +5493,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>315</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,66 +5526,165 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>342</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6898.8450000000003</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>343</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>344</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>345</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>346</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>317</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>149</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>152</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>348</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>70</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>149</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>296</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>349</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>317</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>149</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>120</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7001.8450000000003</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>351</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>352</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>353</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6155,10 +6278,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -770,6 +770,15 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -785,6 +794,15 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t>SUPRAX 400MG 5 TAB</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
   </si>
   <si>
@@ -824,9 +842,6 @@
     <t>VOLTAREN 1% EMULGEL 25 GM</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -962,96 +977,102 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>101:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ماء ورد ايفا</t>
+  </si>
+  <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>101:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>كيس جمع بول</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ماء ورد ايفا</t>
-  </si>
-  <si>
-    <t>ماسك وجه</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -1064,7 +1085,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:47 PM</t>
+    <t>Saturday, 13 September, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4180,7 +4201,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4194,7 +4215,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4223,14 +4244,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4260,7 +4281,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4272,14 +4293,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4322,11 +4343,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4338,14 +4359,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,11 +4376,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,14 +4425,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,11 +4442,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4454,14 +4475,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,14 +4508,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4520,14 +4541,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4553,14 +4574,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>285</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>155</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4609,7 +4630,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4619,11 +4640,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>26</v>
@@ -4642,7 +4663,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4652,14 +4673,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4708,21 +4729,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4734,20 +4755,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4755,10 +4776,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4774,7 +4795,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4784,11 +4805,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4817,11 +4838,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4833,14 +4854,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4854,10 +4875,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4866,14 +4887,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,14 +4904,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>304</v>
+        <v>120</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>305</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4899,14 +4920,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4916,14 +4937,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,14 +4953,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,14 +4970,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4965,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5005,7 +5026,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,14 +5069,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>317</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5064,7 +5085,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5081,11 +5102,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>320</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>155</v>
@@ -5114,14 +5135,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>323</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>324</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5130,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5168,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5163,14 +5184,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,14 +5201,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>283</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5196,14 +5217,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5213,14 +5234,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5229,14 +5250,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>139</v>
+        <v>335</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,14 +5267,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5283,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5300,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5295,14 +5316,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,11 +5333,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>26</v>
@@ -5328,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5366,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,14 +5382,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,11 +5399,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5394,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,14 +5432,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5427,14 +5448,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,11 +5465,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>26</v>
@@ -5460,14 +5481,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,7 +5498,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5493,14 +5514,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,11 +5531,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>121</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5526,14 +5547,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5564,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>212</v>
+        <v>301</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5559,14 +5580,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,14 +5597,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>347</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5592,14 +5613,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,14 +5630,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>296</v>
+        <v>212</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>323</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5625,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,49 +5663,115 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q126" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>355</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7001.8450000000003</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>351</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>352</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>149</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>301</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>356</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
         <v>353</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>149</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>120</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>357</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7175.7150000000001</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>358</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>359</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>360</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6293,10 +6380,20 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -1085,7 +1085,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:48 PM</t>
+    <t>Saturday, 13 September, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -1034,6 +1034,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1043,9 +1055,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -1068,9 +1077,6 @@
   </si>
   <si>
     <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>15:0</t>
   </si>
   <si>
     <t>120.0000</t>
@@ -5356,7 +5362,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5366,11 +5372,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5382,7 +5388,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5399,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5415,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5448,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,14 +5471,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5481,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5514,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,11 +5537,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5547,14 +5553,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5564,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5580,7 +5586,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5597,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>26</v>
@@ -5613,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,11 +5636,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>26</v>
@@ -5646,14 +5652,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>354</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5686,7 +5692,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,14 +5702,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5712,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,49 +5735,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7175.7150000000001</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>358</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>342</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>149</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>120</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>359</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c t="s" r="Q129" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7220.7150000000001</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>360</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>361</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>362</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6390,10 +6429,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -1091,7 +1091,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:49 PM</t>
+    <t>Saturday, 13 September, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
@@ -431,12 +443,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -1091,7 +1094,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:52 PM</t>
+    <t>Saturday, 13 September, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2359,13 +2362,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2376,7 +2379,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2409,7 +2412,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2425,7 +2428,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2534,11 +2537,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2574,7 +2577,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2623,7 +2626,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2633,14 +2636,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2673,7 +2676,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2765,11 +2768,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2805,7 +2808,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>103</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2821,7 +2824,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2904,7 +2907,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2920,7 +2923,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2963,14 +2966,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2979,31 +2982,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3012,31 +3015,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3045,31 +3048,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3078,28 +3081,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3194,11 +3197,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3210,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3260,11 +3263,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3309,7 +3312,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3326,11 +3329,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3408,28 +3411,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3441,28 +3444,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3474,28 +3477,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3507,28 +3510,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3606,28 +3609,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3639,28 +3642,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,14 +3692,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3738,7 +3741,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3755,14 +3758,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3778,24 +3781,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3804,28 +3807,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3837,31 +3840,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3870,31 +3873,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3903,28 +3906,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3936,28 +3939,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4154,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,14 +4187,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4207,7 +4210,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4299,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>26</v>
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>26</v>
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>26</v>
@@ -4438,7 +4441,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4484,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,14 +4500,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,14 +4517,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4537,7 +4540,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4570,7 +4573,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4596,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4613,14 +4616,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>285</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4629,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4649,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>284</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4669,7 +4672,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>288</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,14 +4682,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4715,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4735,7 +4738,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>26</v>
@@ -4761,14 +4764,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,14 +4781,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4794,31 +4797,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4827,28 +4830,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>26</v>
@@ -4860,28 +4863,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4900,21 +4903,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4926,31 +4929,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4959,28 +4962,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>70</v>
@@ -4992,31 +4995,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,31 +5028,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5058,28 +5061,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -5098,24 +5101,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5137,18 +5140,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>323</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,7 +5160,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5170,18 +5173,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>155</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,7 +5193,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5203,18 +5206,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>330</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,31 +5226,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,31 +5259,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>335</v>
+        <v>268</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>288</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5289,31 +5292,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>70</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,31 +5325,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,28 +5358,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>342</v>
+        <v>143</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>26</v>
@@ -5388,28 +5391,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>121</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5434,15 +5437,15 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5461,24 +5464,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5494,24 +5497,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5527,17 +5530,17 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5560,21 +5563,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5586,28 +5589,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>26</v>
@@ -5626,21 +5629,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>26</v>
@@ -5659,21 +5662,21 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>26</v>
@@ -5692,24 +5695,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>356</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>139</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,31 +5721,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>70</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5758,59 +5761,92 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>70</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>70</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7220.7150000000001</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>359</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>343</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>83</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>124</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>360</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c t="s" r="Q130" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7260.7150000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>361</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>362</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>363</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6434,10 +6470,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>14.3000</t>
   </si>
   <si>
+    <t>ATROVENT 500MCG/2ML 20 UNIT DOSE VIALS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
     <t>AUGMENTIN ES-600 PD. FOR ORAL SUSP. 75 ML</t>
   </si>
   <si>
@@ -176,6 +185,15 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -221,9 +239,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
   </si>
   <si>
@@ -614,6 +629,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -683,6 +707,9 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -749,6 +776,9 @@
     <t>752.00</t>
   </si>
   <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -860,229 +890,229 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8270:0</t>
+    <t>8268:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شامبو كلير 1 كيس</t>
+  </si>
+  <si>
+    <t>101:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ماء ورد ايفا</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>38:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شامبو كلير 1 كيس</t>
-  </si>
-  <si>
-    <t>101:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول العنايه بالبشره</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
-    <t>كريم فيرند لافلي الكبير</t>
-  </si>
-  <si>
-    <t>كيس جمع بول</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ماء ورد ايفا</t>
-  </si>
-  <si>
-    <t>ماسك وجه</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>120.0000</t>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>144.0000</t>
   </si>
   <si>
     <t>مخمريه العود الملكي</t>
@@ -1094,7 +1124,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 9:58 PM</t>
+    <t>Saturday, 13 September, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2095,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2141,14 +2171,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2174,11 +2204,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2207,14 +2237,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2240,14 +2270,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2263,7 +2293,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2280,7 +2310,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2310,7 +2340,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2339,11 +2369,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2355,31 +2385,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2388,14 +2418,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2405,11 +2435,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2421,28 +2451,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2454,14 +2484,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2471,14 +2501,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2487,14 +2517,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2504,11 +2534,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2520,14 +2550,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2537,11 +2567,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2553,14 +2583,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2570,11 +2600,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2586,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2603,14 +2633,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2619,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2636,14 +2666,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2652,14 +2682,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2669,14 +2699,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2685,14 +2715,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2702,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2718,14 +2748,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2735,14 +2765,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2751,14 +2781,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2768,14 +2798,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2784,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2834,14 +2864,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2850,7 +2880,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2867,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2916,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2933,11 +2963,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2956,7 +2986,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2989,7 +3019,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2999,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3015,7 +3045,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3028,18 +3058,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3055,7 +3085,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3072,7 +3102,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3088,21 +3118,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -3114,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,28 +3177,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3197,14 +3227,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3213,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3230,14 +3260,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3263,14 +3293,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,14 +3309,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3326,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,11 +3359,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,11 +3392,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,11 +3458,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>26</v>
@@ -3444,31 +3474,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3484,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3517,21 +3547,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3543,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3560,11 +3590,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3576,31 +3606,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3609,14 +3639,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3626,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3649,24 +3679,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3682,7 +3712,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,7 +3722,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3715,7 +3745,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3725,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3741,20 +3771,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3762,7 +3792,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3781,7 +3811,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3821,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,31 +3837,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3840,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,11 +3887,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3873,31 +3903,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,28 +3936,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3939,28 +3969,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3972,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4005,28 +4035,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4038,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,28 +4101,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4104,14 +4134,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4170,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4203,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4236,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4253,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4269,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4290,10 +4320,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4302,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,14 +4349,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4335,14 +4365,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,11 +4382,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4368,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4408,7 +4438,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4434,7 +4464,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4451,11 +4481,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>26</v>
@@ -4474,7 +4504,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4500,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4540,7 +4570,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,11 +4580,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4566,14 +4596,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>286</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4672,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4712,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4705,7 +4735,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>156</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4731,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4764,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4785,10 +4815,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>295</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4804,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4814,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4830,31 +4860,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,28 +4893,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4896,28 +4926,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>26</v>
@@ -4929,31 +4959,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4962,31 +4992,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,31 +5025,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5035,24 +5065,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,28 +5091,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>317</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>26</v>
@@ -5094,31 +5124,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>225</v>
+        <v>316</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5127,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,31 +5190,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>318</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>323</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>324</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,20 +5223,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5217,7 +5247,7 @@
         <v>327</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>156</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5233,24 +5263,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>331</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,31 +5289,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5292,31 +5322,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>289</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5325,31 +5355,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>70</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,31 +5388,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>26</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,28 +5421,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>26</v>
@@ -5424,31 +5454,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>26</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,31 +5487,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>35</v>
+        <v>322</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5490,31 +5520,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>156</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5523,28 +5553,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5556,28 +5586,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5589,28 +5619,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>26</v>
@@ -5622,31 +5652,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5655,28 +5685,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>26</v>
@@ -5688,28 +5718,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>26</v>
@@ -5721,31 +5751,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5754,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5787,66 +5817,231 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7260.7150000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>361</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>362</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>161</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>88</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>129</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>363</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>364</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>88</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>221</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>365</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>366</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>88</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>158</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>367</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>368</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>59</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>88</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>311</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>369</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>295</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>88</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>129</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>370</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7734.2150000000001</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>371</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>372</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>373</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6475,10 +6670,35 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -842,198 +842,192 @@
     <t>58.00</t>
   </si>
   <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 1% EMULGEL 25 GM</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8268:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>ZINCOSIL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
-  </si>
-  <si>
-    <t>URAID-N EFF. GRANUL. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 1% EMULGEL 25 GM</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8268:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 3 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>ZINCOSIL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>38:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -1124,7 +1118,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:02 PM</t>
+    <t>Saturday, 13 September, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4570,7 +4564,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,11 +4574,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4596,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,11 +4607,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4629,14 +4623,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,14 +4640,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4662,14 +4656,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,14 +4673,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4695,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4712,14 +4706,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4728,14 +4722,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,11 +4739,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4761,14 +4755,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,14 +4772,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>291</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4801,7 +4795,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4805,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>295</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,14 +4821,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4838,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4867,7 +4861,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4877,14 +4871,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4893,14 +4887,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4904,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4926,14 +4920,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4937,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,31 +4953,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4992,14 +4986,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5009,11 +5003,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -5032,7 +5026,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>310</v>
+        <v>161</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,11 +5036,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -5058,14 +5052,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5075,11 +5069,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5091,14 +5085,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5108,14 +5102,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5124,14 +5118,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,11 +5135,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>59</v>
@@ -5157,14 +5151,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5181,7 +5175,7 @@
         <v>320</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5197,7 +5191,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,14 +5201,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5223,14 +5217,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,11 +5234,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5256,14 +5250,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,14 +5267,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5289,7 +5283,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5306,14 +5300,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>161</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5339,14 +5333,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>332</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5355,7 +5349,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5372,14 +5366,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5388,14 +5382,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,14 +5399,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>339</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5421,14 +5415,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,14 +5432,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>342</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>294</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5475,10 +5469,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>298</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5494,7 +5488,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5504,14 +5498,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5520,14 +5514,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,11 +5531,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5553,14 +5547,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5570,11 +5564,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>351</v>
+        <v>129</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5586,7 +5580,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5603,11 +5597,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5619,14 +5613,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5636,14 +5630,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,14 +5646,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5669,14 +5663,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5685,14 +5679,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5702,7 +5696,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5718,14 +5712,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5735,11 +5729,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>26</v>
@@ -5758,7 +5752,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5768,11 +5762,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>26</v>
@@ -5784,14 +5778,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5801,11 +5795,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>26</v>
@@ -5817,14 +5811,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5834,11 +5828,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>359</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>26</v>
@@ -5850,14 +5844,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5867,11 +5861,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>26</v>
@@ -5900,14 +5894,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>26</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5916,14 +5910,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5933,14 +5927,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>298</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5949,14 +5943,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5966,82 +5960,49 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="A135" s="7">
-        <v>129</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c t="s" r="C135" s="8">
+      <c r="P135" s="13">
+        <v>7684.2150000000001</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
         <v>369</v>
       </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c t="s" r="H135" s="9">
-        <v>295</v>
-      </c>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c t="s" r="L135" s="10">
-        <v>88</v>
-      </c>
-      <c r="M135" s="10"/>
-      <c t="s" r="N135" s="8">
-        <v>129</v>
-      </c>
-      <c r="O135" s="8"/>
-      <c t="s" r="P135" s="11">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
         <v>370</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7734.2150000000001</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
         <v>371</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>372</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>373</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6690,15 +6651,10 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="H135:K135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -689,6 +689,9 @@
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -1118,7 +1121,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:03 PM</t>
+    <t>Saturday, 13 September, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3937,24 +3940,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3963,28 +3966,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4036,21 +4039,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4062,31 +4065,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4095,28 +4098,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4128,28 +4131,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>26</v>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>255</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4399,7 +4402,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4458,14 +4461,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4508,11 +4511,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>26</v>
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4541,11 +4544,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4557,7 +4560,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>26</v>
@@ -4597,7 +4600,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>26</v>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4640,14 +4643,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4673,14 +4676,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4696,7 +4699,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4706,14 +4709,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4729,7 +4732,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4755,14 +4758,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4772,14 +4775,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>291</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4805,14 +4808,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4828,7 +4831,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4838,14 +4841,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>295</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4894,7 +4897,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4904,11 +4907,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>26</v>
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4937,14 +4940,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4953,31 +4956,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5003,11 +5006,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>308</v>
+        <v>35</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -5059,7 +5062,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5069,11 +5072,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5085,14 +5088,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5102,14 +5105,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5135,11 +5138,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>59</v>
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5168,14 +5171,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5201,14 +5204,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5234,11 +5237,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5257,7 +5260,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5267,14 +5270,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5283,7 +5286,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5300,14 +5303,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>330</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5316,7 +5319,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5333,14 +5336,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5349,7 +5352,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5366,14 +5369,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>335</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5399,14 +5402,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>26</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5432,14 +5435,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>294</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5448,14 +5451,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5465,14 +5468,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>59</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>148</v>
+        <v>345</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5498,14 +5501,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>347</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5531,11 +5534,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>26</v>
@@ -5547,14 +5550,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5564,11 +5567,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>26</v>
@@ -5597,11 +5600,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>26</v>
@@ -5620,7 +5623,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5630,14 +5633,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5653,7 +5656,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5663,14 +5666,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5686,7 +5689,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5696,7 +5699,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5719,7 +5722,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5729,11 +5732,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>26</v>
@@ -5745,14 +5748,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5762,11 +5765,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>26</v>
@@ -5785,7 +5788,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5795,11 +5798,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>26</v>
@@ -5818,7 +5821,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5828,11 +5831,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>26</v>
@@ -5851,7 +5854,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>362</v>
+        <v>161</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5861,11 +5864,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>26</v>
@@ -5877,14 +5880,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5894,14 +5897,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>365</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>294</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5910,14 +5913,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>59</v>
+        <v>365</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5927,14 +5930,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>308</v>
+        <v>158</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>59</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5950,7 +5953,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>291</v>
+        <v>59</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5960,49 +5963,82 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7684.2150000000001</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>368</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>292</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>88</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>129</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>369</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+      <c t="s" r="Q135" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7720.2150000000001</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>370</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
         <v>371</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>372</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6651,10 +6687,15 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-13_00-00.xlsx
+++ b/DaySale_2025-09-13_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -578,6 +587,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>GRALIPENTIN XR 300MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -662,6 +680,15 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LIMITLESS OSSOFORTIN D3 (5000 I.U.) 30 TABS.</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -782,6 +809,15 @@
     <t>0:10</t>
   </si>
   <si>
+    <t xml:space="preserve">RELANTA  20TAB</t>
+  </si>
+  <si>
+    <t>86.75</t>
+  </si>
+  <si>
+    <t>86.7500</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -1013,6 +1049,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -1121,7 +1160,7 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>Saturday, 13 September, 2025 10:11 PM</t>
+    <t>Saturday, 13 September, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2059,7 +2098,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2069,14 +2108,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2085,14 +2124,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2102,14 +2141,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2125,7 +2164,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2135,14 +2174,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2158,7 +2197,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2168,7 +2207,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -2191,7 +2230,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2201,7 +2240,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -2224,7 +2263,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2234,14 +2273,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2250,14 +2289,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2267,14 +2306,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2283,14 +2322,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2307,7 +2346,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2323,7 +2362,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2337,10 +2376,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2349,14 +2388,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2366,11 +2405,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2389,7 +2428,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2422,7 +2461,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2455,24 +2494,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2481,31 +2520,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2514,14 +2553,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2531,14 +2570,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2547,14 +2586,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2587,7 +2626,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2620,7 +2659,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2686,7 +2725,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2696,14 +2735,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2712,14 +2751,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2729,14 +2768,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>119</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2745,14 +2784,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2762,14 +2801,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2778,14 +2817,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2795,14 +2834,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2811,14 +2850,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2851,7 +2890,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2861,14 +2900,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2884,7 +2923,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2894,7 +2933,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2917,7 +2956,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2927,14 +2966,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2943,14 +2982,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2967,7 +3006,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2983,7 +3022,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3000,7 +3039,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3016,7 +3055,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3026,14 +3065,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3042,14 +3081,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3059,14 +3098,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3082,7 +3121,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3099,7 +3138,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3115,24 +3154,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3141,31 +3180,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3181,24 +3220,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3207,20 +3246,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3280,7 +3319,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3297,7 +3336,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3313,7 +3352,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3323,11 +3362,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3339,14 +3378,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3363,7 +3402,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3379,7 +3418,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3412,7 +3451,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3478,7 +3517,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3495,7 +3534,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3511,7 +3550,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3544,24 +3583,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3570,14 +3609,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3587,11 +3626,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3603,24 +3642,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3643,7 +3682,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3676,13 +3715,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3709,7 +3748,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3719,14 +3758,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3752,14 +3791,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3768,28 +3807,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3801,14 +3840,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3818,7 +3857,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3841,24 +3880,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3874,7 +3913,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3888,10 +3927,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3900,14 +3939,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3917,14 +3956,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3933,14 +3972,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3950,11 +3989,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3966,28 +4005,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3999,14 +4038,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4016,14 +4055,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4032,14 +4071,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4049,11 +4088,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -4065,31 +4104,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4098,14 +4137,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4115,11 +4154,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4131,31 +4170,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4171,24 +4210,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4204,7 +4243,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4221,7 +4260,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4237,24 +4276,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4263,14 +4302,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4280,11 +4319,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4296,14 +4335,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4313,14 +4352,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>256</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4329,14 +4368,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4346,14 +4385,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4362,14 +4401,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4379,11 +4418,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4395,14 +4434,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4412,14 +4451,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4428,31 +4467,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4461,14 +4500,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4478,14 +4517,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4494,14 +4533,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4511,14 +4550,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4527,14 +4566,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4544,11 +4583,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>26</v>
@@ -4560,14 +4599,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4577,14 +4616,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4593,14 +4632,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4610,14 +4649,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4626,14 +4665,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4643,11 +4682,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>26</v>
@@ -4659,14 +4698,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4676,14 +4715,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4692,7 +4731,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4709,11 +4748,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>26</v>
@@ -4725,14 +4764,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4742,14 +4781,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4758,14 +4797,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4775,14 +4814,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4791,14 +4830,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4808,14 +4847,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>292</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4824,14 +4863,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4841,11 +4880,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>26</v>
@@ -4857,14 +4896,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4874,14 +4913,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4897,7 +4936,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4907,14 +4946,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4923,14 +4962,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4940,14 +4979,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4956,14 +4995,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4973,14 +5012,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4989,31 +5028,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5022,28 +5061,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>26</v>
@@ -5055,28 +5094,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>26</v>
@@ -5088,31 +5127,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5121,31 +5160,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>314</v>
+        <v>141</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5154,31 +5193,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>318</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5187,31 +5226,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5220,28 +5259,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>26</v>
@@ -5253,31 +5292,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>235</v>
+        <v>326</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5293,24 +5332,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5319,31 +5358,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>331</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5352,31 +5391,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>295</v>
+        <v>26</v>
       </